--- a/src/assets/classifier_context.xlsx
+++ b/src/assets/classifier_context.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauth\OneDrive\Desktop\open_ai_assistant_v2\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCE2F47-4B20-4408-9F11-292B0E4C81FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564EAFF3-724E-4BA2-9A01-9FBE9DE518B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5C924A35-3DA8-4BB0-97DA-79B54FEAE102}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="simple-complex" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="51">
   <si>
     <t>input</t>
   </si>
@@ -156,6 +156,39 @@
   </si>
   <si>
     <t>This is a complete request, Andrew is asking for a list of petrol measurement systems and  I can not answer with the context</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>analysis_3</t>
+  </si>
+  <si>
+    <t>response_3</t>
+  </si>
+  <si>
+    <t>complex</t>
+  </si>
+  <si>
+    <t>User is asking what AI is capable on</t>
+  </si>
+  <si>
+    <t>Based on my context It seems that is a question I can answer</t>
+  </si>
+  <si>
+    <t>I see this is too general question, and I do not have this information in my context so this type is complex</t>
+  </si>
+  <si>
+    <t>This input is out of my knowledge, this type is complex</t>
+  </si>
+  <si>
+    <t>It seems to be a detailed request but is out of my knowledge</t>
+  </si>
+  <si>
+    <t>It is a greeting-like, I can handle it</t>
+  </si>
+  <si>
+    <t>User is greeting AI, I can say hello too</t>
   </si>
 </sst>
 </file>
@@ -530,223 +563,312 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79F73AA-B630-47FA-BD75-7722C09D8C15}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26" style="1" customWidth="1"/>
+    <col min="1" max="1" width="56.109375" customWidth="1"/>
+    <col min="2" max="2" width="37.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5546875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="26" style="1" customWidth="1"/>
+    <col min="6" max="6" width="51.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26" style="1" customWidth="1"/>
+    <col min="9" max="9" width="51.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/classifier_context.xlsx
+++ b/src/assets/classifier_context.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauth\OneDrive\Desktop\open_ai_assistant_v2\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564EAFF3-724E-4BA2-9A01-9FBE9DE518B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A164796-F637-4DD3-94F0-86DB8B086046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5C924A35-3DA8-4BB0-97DA-79B54FEAE102}"/>
+    <workbookView xWindow="22932" yWindow="7992" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5C924A35-3DA8-4BB0-97DA-79B54FEAE102}"/>
   </bookViews>
   <sheets>
     <sheet name="simple-complex" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -565,7 +566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79F73AA-B630-47FA-BD75-7722C09D8C15}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -874,4 +875,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0695E4-9A37-453F-A875-00F98F31C31F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="A1:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>